--- a/01.設計/cms/サーバインフラ設計.xlsx
+++ b/01.設計/cms/サーバインフラ設計.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109AA59-EAC0-5A46-9FC8-305CCCA9AF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWSリソース一覧" sheetId="1" r:id="rId1"/>
     <sheet name="インフラ俯瞰図" sheetId="6" r:id="rId2"/>
     <sheet name="DynamoDB" sheetId="7" r:id="rId3"/>
+    <sheet name="S3" sheetId="8" r:id="rId4"/>
+    <sheet name="CloudFront" sheetId="9" r:id="rId5"/>
+    <sheet name="Lambda" sheetId="10" r:id="rId6"/>
+    <sheet name="API Gateway" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -83,20 +93,16 @@
     <t>クラウドサービス ベンダ  AWS</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>Overview</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -104,14 +110,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -120,7 +126,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -129,7 +135,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -232,36 +238,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -269,20 +283,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>211370</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>32906</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F5DDC7-D4F0-1840-919F-6D4CC333C02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -295,8 +315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="749300"/>
-          <a:ext cx="11214100" cy="4998606"/>
+          <a:off x="1054099" y="520700"/>
+          <a:ext cx="9190271" cy="4711700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -313,40 +333,411 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>117129</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590597</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="コンテンツ プレースホルダー 5" descr="Screen Shot 2020-07-03 at 11.56.09.png"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43417B40-9088-9B40-B152-A40C336D5BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noGrp="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="-5106" r="-5106"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="977900" y="574329"/>
-          <a:ext cx="9391697" cy="4683471"/>
+          <a:off x="1003300" y="431800"/>
+          <a:ext cx="7772400" cy="4350395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F4FD61-1D83-DA40-AE4A-0FC5D0CF2450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="469900"/>
+          <a:ext cx="7772400" cy="4067581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>93411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469774A4-79F2-A244-B63B-3014B350A359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="4724400"/>
+          <a:ext cx="7772400" cy="4106611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8589CDC-A15E-D24B-9CAD-9615626EBA2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="254000"/>
+          <a:ext cx="7772400" cy="3988960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D686D6E1-2230-7E42-AA80-4E4A899FEC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="4508500"/>
+          <a:ext cx="7772400" cy="4096644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>186353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03A856B-28A4-9645-9EB7-15097D0569F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="8775700"/>
+          <a:ext cx="7772400" cy="2789853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1DA090-DF9E-AB49-827A-62BFFBB48193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="647700"/>
+          <a:ext cx="7772400" cy="2811497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD915290-ABD9-C145-B4BA-FFBEF9505E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="3683000"/>
+          <a:ext cx="7772400" cy="1844134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>116508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4540F3FD-242F-FD47-8ECD-17A3E1E293BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="215900"/>
+          <a:ext cx="7772400" cy="4167808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,14 +1093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="3" customWidth="1"/>
@@ -717,12 +1108,12 @@
     <col min="4" max="16384" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -742,7 +1133,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -751,7 +1142,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -760,7 +1151,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -769,7 +1160,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -778,7 +1169,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -787,7 +1178,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -796,7 +1187,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -818,14 +1209,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
@@ -833,7 +1222,7 @@
     <col min="15" max="15" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,7 +1240,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -867,7 +1256,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -883,7 +1272,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -899,7 +1288,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -915,7 +1304,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -931,7 +1320,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -947,7 +1336,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -963,7 +1352,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -979,7 +1368,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -995,7 +1384,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1011,7 +1400,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1027,7 +1416,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1043,7 +1432,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1059,7 +1448,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1075,7 +1464,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1091,7 +1480,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1107,7 +1496,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1123,7 +1512,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1139,7 +1528,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1155,7 +1544,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1171,7 +1560,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1187,7 +1576,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1203,7 +1592,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1219,7 +1608,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1249,19 +1638,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1271,4 +1656,56 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D41224F-732E-0C49-897E-FF5AB1A5FEA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2284FF5-492C-4441-A6A2-DAC46E6717F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAA6E12-9059-5941-B984-6FF503D33E92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C59C54-C185-FB4A-851C-83BD4EFD4ACA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01.設計/cms/サーバインフラ設計.xlsx
+++ b/01.設計/cms/サーバインフラ設計.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109AA59-EAC0-5A46-9FC8-305CCCA9AF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46D0FC-0E56-7640-91CA-2BA4ED699A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWSリソース一覧" sheetId="1" r:id="rId1"/>
     <sheet name="インフラ俯瞰図" sheetId="6" r:id="rId2"/>
-    <sheet name="DynamoDB" sheetId="7" r:id="rId3"/>
-    <sheet name="S3" sheetId="8" r:id="rId4"/>
-    <sheet name="CloudFront" sheetId="9" r:id="rId5"/>
-    <sheet name="Lambda" sheetId="10" r:id="rId6"/>
-    <sheet name="API Gateway" sheetId="11" r:id="rId7"/>
+    <sheet name="AR用API &amp; 動画配信基盤" sheetId="12" r:id="rId3"/>
+    <sheet name="CMS" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -70,10 +67,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AWS IAM (ロール)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>S3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -82,23 +75,94 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>WAF &amp; Shield</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>EC2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クラウドサービス ベンダ  AWS</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AR用API &amp; 動画配信基盤</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>リクエストパラメータのアルバムIDに該当するコンテンツのパスを返す。</t>
+  </si>
+  <si>
+    <t>上記 Lambdaのエンドポイント。</t>
+  </si>
+  <si>
+    <t>上記 S3のCDN。</t>
+  </si>
+  <si>
+    <t>アルバムのコンテンツのパスを保持する。</t>
+  </si>
+  <si>
+    <t>アルバムのコンテンツ (マーカー画像、動画) を保管するストレージ。</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>MediaConvert</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>卒ARuのAR用コンテンツを管理するシステム。</t>
+  </si>
+  <si>
+    <t>S3に動画ファイルが追加された時に、ビットレートを小さくし、ストリーミング用のファイルに変換する。</t>
+  </si>
+  <si>
+    <t>上記 Lambdaから呼び出され、動画ファイルを変換する。</t>
+  </si>
+  <si>
+    <t>変換完了時に上記 DynamoDBに状態を書き出す。</t>
+  </si>
+  <si>
+    <t>上記 MediaConvertの起動時にログを記録し、変換完了時に上記 DynamoDBに状態を書き出すLambdaを呼ぶ。</t>
+  </si>
+  <si>
+    <t>動画変換に失敗した時、エラー通知を行う。</t>
+  </si>
+  <si>
+    <t>＊「AR用API &amp; 動画配信基盤」シートのDynamoDBと同じ</t>
+  </si>
+  <si>
+    <t>＊「AR用API &amp; 動画配信基盤」シートのs３と同じ</t>
+  </si>
+  <si>
+    <t>卒ARuのAR用コンテンツを管理するシステムをデプロイするサーバ。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +204,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -175,6 +253,137 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,7 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -223,19 +432,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -333,22 +550,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108595</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43417B40-9088-9B40-B152-A40C336D5BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3E773E-F6C6-2140-A1BB-D078355E8083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -364,8 +581,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1003300" y="431800"/>
+          <a:off x="825500" y="2032000"/>
           <a:ext cx="7772400" cy="4350395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69417CE6-D4AC-0E4C-A6EC-3A9508F7A715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="6908800"/>
+          <a:ext cx="7772400" cy="1844134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>103808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232BBDD2-EA0D-F54B-9570-4F5035A20D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="9347200"/>
+          <a:ext cx="7772400" cy="4167808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>244164</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DCF740-C598-9547-B7CA-CA47866733A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="14224000"/>
+          <a:ext cx="7775264" cy="4069080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>29912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CF9C95-24B9-A94E-8E66-AA9824C86355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="18478501"/>
+          <a:ext cx="7772400" cy="4106611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2B57F6-301B-4347-819F-6BADAFD37E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="23164800"/>
+          <a:ext cx="7772400" cy="3988960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>19944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B335EC-A2A5-5C42-99A3-69CCCBB7E617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="27419300"/>
+          <a:ext cx="7772400" cy="4096644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>135553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB57ACFF-8A8A-3243-98C9-AECDBD1B4849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="31686500"/>
+          <a:ext cx="7772400" cy="2789853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,22 +907,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>67081</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F4FD61-1D83-DA40-AE4A-0FC5D0CF2450}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF484333-A5D5-934D-BC46-6BAE00FB668D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -413,8 +938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="469900"/>
-          <a:ext cx="7772400" cy="4067581"/>
+          <a:off x="838200" y="4127500"/>
+          <a:ext cx="7772400" cy="2467972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -426,22 +951,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93411</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>136158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469774A4-79F2-A244-B63B-3014B350A359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612E413E-B66A-5642-8AB0-F6494E2A4525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -457,57 +982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889000" y="4724400"/>
-          <a:ext cx="7772400" cy="4106611"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>178960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8589CDC-A15E-D24B-9CAD-9615626EBA2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="254000"/>
-          <a:ext cx="7772400" cy="3988960"/>
+          <a:off x="825500" y="7213600"/>
+          <a:ext cx="7772400" cy="5584458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,66 +995,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>70744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D686D6E1-2230-7E42-AA80-4E4A899FEC73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="863600" y="4508500"/>
-          <a:ext cx="7772400" cy="4096644"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>186353</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>5835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03A856B-28A4-9645-9EB7-15097D0569F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E18E47-62F4-5041-BD37-7DF51DE6D31F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,57 +1026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889000" y="8775700"/>
-          <a:ext cx="7772400" cy="2789853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4797</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1DA090-DF9E-AB49-827A-62BFFBB48193}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="647700"/>
-          <a:ext cx="7772400" cy="2811497"/>
+          <a:off x="850900" y="12941300"/>
+          <a:ext cx="7772400" cy="5619235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,23 +1038,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40734</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>158921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD915290-ABD9-C145-B4BA-FFBEF9505E2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F2B960-0641-1649-9E36-E84BC3C4DE10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,15 +1063,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812800" y="3683000"/>
-          <a:ext cx="7772400" cy="1844134"/>
+          <a:off x="850900" y="18542000"/>
+          <a:ext cx="7772400" cy="5251621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,30 +1080,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>116508</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>173858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4540F3FD-242F-FD47-8ECD-17A3E1E293BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03390DA-2E0C-5A40-A2D2-05B5A207FCB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -729,15 +1107,191 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="215900"/>
-          <a:ext cx="7772400" cy="4167808"/>
+          <a:off x="863600" y="24015700"/>
+          <a:ext cx="7772400" cy="2434458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>123517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E759DB81-D8A8-0546-88B4-FAA817F3F82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="26682700"/>
+          <a:ext cx="7772400" cy="5609917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>63363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4253B92-EDD3-E549-8D83-5DAFFB6086DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="32385000"/>
+          <a:ext cx="7772400" cy="5740263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>73965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>180283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102BAE9B-3A50-864A-9F16-1B1A1E65A06B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117600" y="38135865"/>
+          <a:ext cx="7493000" cy="5389518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>197997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>153044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2091D23F-E768-1248-A5A0-E42F5C9E664C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="43543097"/>
+          <a:ext cx="7442200" cy="5035047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1094,23 +1648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="100.83203125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,7 +1685,9 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1140,61 +1696,91 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9"/>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1241,388 +1827,388 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1638,73 +2224,349 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FA796C-B1B1-6144-911B-30E89DE0DEAB}">
+  <dimension ref="B2:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D41224F-732E-0C49-897E-FF5AB1A5FEA2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2284FF5-492C-4441-A6A2-DAC46E6717F9}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A2BD8-7A16-B241-AB1F-331B79D6A0E3}">
+  <dimension ref="B2:K243"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAA6E12-9059-5941-B984-6FF503D33E92}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C59C54-C185-FB4A-851C-83BD4EFD4ACA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/01.設計/cms/サーバインフラ設計.xlsx
+++ b/01.設計/cms/サーバインフラ設計.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46D0FC-0E56-7640-91CA-2BA4ED699A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5534180-6512-8748-BFA0-A6BDEE40D2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWSリソース一覧" sheetId="1" r:id="rId1"/>
     <sheet name="インフラ俯瞰図" sheetId="6" r:id="rId2"/>
-    <sheet name="AR用API &amp; 動画配信基盤" sheetId="12" r:id="rId3"/>
-    <sheet name="CMS" sheetId="13" r:id="rId4"/>
+    <sheet name="CMS &amp; 動画コンバート" sheetId="13" r:id="rId3"/>
+    <sheet name="動画配信基盤 &amp; AR用API " sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -83,9 +83,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AR用API &amp; 動画配信基盤</t>
-  </si>
-  <si>
     <t>DynamoDB</t>
   </si>
   <si>
@@ -149,13 +146,16 @@
     <t>動画変換に失敗した時、エラー通知を行う。</t>
   </si>
   <si>
-    <t>＊「AR用API &amp; 動画配信基盤」シートのDynamoDBと同じ</t>
-  </si>
-  <si>
-    <t>＊「AR用API &amp; 動画配信基盤」シートのs３と同じ</t>
-  </si>
-  <si>
     <t>卒ARuのAR用コンテンツを管理するシステムをデプロイするサーバ。</t>
+  </si>
+  <si>
+    <t>＊「CMS」シートのDynamoDBと同じ</t>
+  </si>
+  <si>
+    <t>＊「CMS」シートのS3と同じ</t>
+  </si>
+  <si>
+    <t>動画配信基盤 &amp; AR用API</t>
   </si>
 </sst>
 </file>
@@ -550,371 +550,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>83195</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3E773E-F6C6-2140-A1BB-D078355E8083}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="2032000"/>
-          <a:ext cx="7772400" cy="4350395"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>15334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69417CE6-D4AC-0E4C-A6EC-3A9508F7A715}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="6908800"/>
-          <a:ext cx="7772400" cy="1844134"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>103808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232BBDD2-EA0D-F54B-9570-4F5035A20D75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="9347200"/>
-          <a:ext cx="7772400" cy="4167808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>244164</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DCF740-C598-9547-B7CA-CA47866733A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="14224000"/>
-          <a:ext cx="7775264" cy="4069080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>29912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CF9C95-24B9-A94E-8E66-AA9824C86355}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="18478501"/>
-          <a:ext cx="7772400" cy="4106611"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2B57F6-301B-4347-819F-6BADAFD37E23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="23164800"/>
-          <a:ext cx="7772400" cy="3988960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>19944</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B335EC-A2A5-5C42-99A3-69CCCBB7E617}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="27419300"/>
-          <a:ext cx="7772400" cy="4096644"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>135553</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB57ACFF-8A8A-3243-98C9-AECDBD1B4849}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="850900" y="31686500"/>
-          <a:ext cx="7772400" cy="2789853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>29572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -952,13 +595,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>136158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -996,13 +639,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>5835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1040,13 +683,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>158921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1084,13 +727,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>173858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1128,13 +771,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>123517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1172,13 +815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>63363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1216,13 +859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>73965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>180283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1260,13 +903,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>197997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>153044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1292,6 +935,363 @@
         <a:xfrm>
           <a:off x="1181100" y="43543097"/>
           <a:ext cx="7442200" cy="5035047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDBC330-F744-AE44-9892-56BE393AB608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="2095500"/>
+          <a:ext cx="7772400" cy="4350395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206064</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8169F7-F7B0-9F4E-8057-4C5228BF06F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="10223500"/>
+          <a:ext cx="7775264" cy="4069080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>29912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE270A9-F683-3D4A-B75F-325F9931E94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="14478001"/>
+          <a:ext cx="7772400" cy="4106611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>15334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69417CE6-D4AC-0E4C-A6EC-3A9508F7A715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="6908800"/>
+          <a:ext cx="7772400" cy="1844134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>103808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232BBDD2-EA0D-F54B-9570-4F5035A20D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="9347200"/>
+          <a:ext cx="7772400" cy="4167808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2B57F6-301B-4347-819F-6BADAFD37E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="23164800"/>
+          <a:ext cx="7772400" cy="3988960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B335EC-A2A5-5C42-99A3-69CCCBB7E617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="27419300"/>
+          <a:ext cx="7772400" cy="4096644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>135553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB57ACFF-8A8A-3243-98C9-AECDBD1B4849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="31686500"/>
+          <a:ext cx="7772400" cy="2789853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1686,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,21 +1697,21 @@
         <v>5</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1722,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1733,31 +1733,31 @@
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1768,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2224,12 +2224,218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A2BD8-7A16-B241-AB1F-331B79D6A0E3}">
+  <dimension ref="B2:K308"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FA796C-B1B1-6144-911B-30E89DE0DEAB}">
-  <dimension ref="B2:K114"/>
+  <dimension ref="B2:K89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2238,15 +2444,15 @@
   <sheetData>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2259,10 +2465,10 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2275,10 +2481,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -2291,10 +2497,10 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2307,10 +2513,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -2323,247 +2529,37 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A2BD8-7A16-B241-AB1F-331B79D6A0E3}">
-  <dimension ref="B2:K243"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/01.設計/cms/サーバインフラ設計.xlsx
+++ b/01.設計/cms/サーバインフラ設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5534180-6512-8748-BFA0-A6BDEE40D2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E774A4-C48F-5740-82F0-8D5B4262CF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWSリソース一覧" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -48,13 +48,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サービス名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DynamoDB</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -79,10 +72,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クラウドサービス ベンダ  AWS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DynamoDB</t>
   </si>
   <si>
@@ -156,6 +145,93 @@
   </si>
   <si>
     <t>動画配信基盤 &amp; AR用API</t>
+  </si>
+  <si>
+    <t>リソース名称 (本番)</t>
+  </si>
+  <si>
+    <t>(開発)</t>
+  </si>
+  <si>
+    <t>msaralbum
+msarcity</t>
+  </si>
+  <si>
+    <t>msaralbum_dev
+msarcity</t>
+  </si>
+  <si>
+    <t>getImageUrl</t>
+  </si>
+  <si>
+    <t>getImageUrl_dev</t>
+  </si>
+  <si>
+    <t>msar-auto-mediaconvert</t>
+  </si>
+  <si>
+    <t>msar-complete-mediaconvert</t>
+  </si>
+  <si>
+    <t>msar-contents-play-count</t>
+  </si>
+  <si>
+    <t>signUrl</t>
+  </si>
+  <si>
+    <t>ARアプリで動画を再生する際に、日にちごとに再生回数をカウントアップする。</t>
+  </si>
+  <si>
+    <t>S3にあるアルバムコンテンツへCloudFront経由でアクセスする際の署名を生成する。</t>
+  </si>
+  <si>
+    <t>msarapi</t>
+  </si>
+  <si>
+    <t>msarapi_dev</t>
+  </si>
+  <si>
+    <t>上記 Lambda getImageUrl のエンドポイント。</t>
+  </si>
+  <si>
+    <t>msar</t>
+  </si>
+  <si>
+    <t>msardev</t>
+  </si>
+  <si>
+    <t>モジュール</t>
+  </si>
+  <si>
+    <t>動画配信基盤</t>
+  </si>
+  <si>
+    <t>AWSサービス名</t>
+  </si>
+  <si>
+    <t>i-001ef8a84cd19ede0</t>
+  </si>
+  <si>
+    <t>MsAR_mp4Depress
+MsAR_mp4ToHLS</t>
+  </si>
+  <si>
+    <t>CloudWatch (Events)</t>
+  </si>
+  <si>
+    <t>sotsuaru@uetomae.co.jp</t>
+  </si>
+  <si>
+    <t>E3F05Q97NDK2V1</t>
+  </si>
+  <si>
+    <t>RDS (Aurora serverless)</t>
+  </si>
+  <si>
+    <t>msar-database-1</t>
+  </si>
+  <si>
+    <t>ARアプリで動画を再生した際の、日にちごとに再生回数を記録する。</t>
   </si>
 </sst>
 </file>
@@ -417,12 +493,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -430,12 +503,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -451,8 +518,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -500,15 +602,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>211370</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1648,138 +1750,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="100.83203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="12.83203125" style="3"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="73.5" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>32</v>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1796,419 +2034,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:O26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="7" max="10" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="9" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2235,194 +2399,194 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="22" t="s">
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FA796C-B1B1-6144-911B-30E89DE0DEAB}">
   <dimension ref="B2:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2443,123 +2607,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>35</v>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
